--- a/StructureDefinition-hiv-viral-load.xlsx
+++ b/StructureDefinition-hiv-viral-load.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$69</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2585" uniqueCount="418">
   <si>
     <t>Path</t>
   </si>
@@ -543,13 +543,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://openhie.org/fhir/openhie.vn.case-reporting.hiv/ValueSet/vs-viralload-chidinh</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -883,6 +877,9 @@
   <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
 If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>Codes describing anatomical locations. May include laterality.</t>
@@ -1232,6 +1229,16 @@
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:code}
+</t>
+  </si>
+  <si>
+    <t>Slice based on the type of component</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>containment by OBX-4?</t>
   </si>
   <si>
@@ -1257,6 +1264,12 @@
   </si>
   <si>
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+  </si>
+  <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -1298,6 +1311,22 @@
   </si>
   <si>
     <t>Guidance on how to interpret the value by comparison to a normal or recommended range.</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/openhie.vn.case-reporting.hiv/ValueSet/vs-common-date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>viralLoadGroup</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/openhie.vn.case-reporting.hiv/ValueSet/vs-viralload-group</t>
   </si>
 </sst>
 </file>
@@ -1446,7 +1475,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO51"/>
+  <dimension ref="A1:AO69"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1456,7 +1485,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.07421875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1479,10 +1508,10 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="76.80078125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="35.91796875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
@@ -3327,13 +3356,11 @@
         <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="X16" s="2"/>
+      <c r="Y16" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>45</v>
@@ -3366,27 +3393,27 @@
         <v>67</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>176</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3409,19 +3436,19 @@
         <v>56</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>45</v>
@@ -3470,7 +3497,7 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>43</v>
@@ -3485,19 +3512,19 @@
         <v>67</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AK17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>45</v>
@@ -3505,7 +3532,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3528,16 +3555,16 @@
         <v>56</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3587,7 +3614,7 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
@@ -3608,13 +3635,13 @@
         <v>45</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>45</v>
@@ -3622,11 +3649,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3645,19 +3672,19 @@
         <v>56</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>45</v>
@@ -3706,7 +3733,7 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -3721,19 +3748,19 @@
         <v>67</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AK19" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
@@ -3741,11 +3768,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3764,19 +3791,19 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>45</v>
@@ -3825,7 +3852,7 @@
         <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -3840,19 +3867,19 @@
         <v>67</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AK20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
@@ -3860,7 +3887,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3883,16 +3910,16 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3942,7 +3969,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -3963,13 +3990,13 @@
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
@@ -3977,7 +4004,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4000,17 +4027,17 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
@@ -4059,7 +4086,7 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4074,19 +4101,19 @@
         <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AK22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4094,7 +4121,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4117,19 +4144,19 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4178,7 +4205,7 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4187,7 +4214,7 @@
         <v>55</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>67</v>
@@ -4196,24 +4223,24 @@
         <v>45</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO23" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>242</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4239,16 +4266,16 @@
         <v>153</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4273,14 +4300,14 @@
         <v>45</v>
       </c>
       <c r="W24" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="Y24" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="X24" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>250</v>
-      </c>
       <c r="Z24" t="s" s="2">
         <v>45</v>
       </c>
@@ -4297,7 +4324,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4306,7 +4333,7 @@
         <v>55</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>67</v>
@@ -4321,7 +4348,7 @@
         <v>98</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>45</v>
@@ -4332,11 +4359,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4358,16 +4385,16 @@
         <v>153</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4392,13 +4419,13 @@
         <v>45</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>45</v>
@@ -4416,7 +4443,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4434,24 +4461,24 @@
         <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO25" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>264</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4474,19 +4501,19 @@
         <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4535,7 +4562,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4556,10 +4583,10 @@
         <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
@@ -4570,7 +4597,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4596,13 +4623,13 @@
         <v>153</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4628,14 +4655,14 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>168</v>
+        <v>275</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="Y27" t="s" s="2">
-        <v>278</v>
-      </c>
       <c r="Z27" t="s" s="2">
         <v>45</v>
       </c>
@@ -4652,7 +4679,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4670,24 +4697,24 @@
         <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>282</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4713,16 +4740,16 @@
         <v>153</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -4747,14 +4774,14 @@
         <v>45</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>168</v>
+        <v>275</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="Y28" t="s" s="2">
-        <v>289</v>
-      </c>
       <c r="Z28" t="s" s="2">
         <v>45</v>
       </c>
@@ -4771,7 +4798,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4792,10 +4819,10 @@
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
@@ -4806,7 +4833,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4829,16 +4856,16 @@
         <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4888,7 +4915,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4906,24 +4933,24 @@
         <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO29" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>300</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4946,16 +4973,16 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5005,7 +5032,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5023,24 +5050,24 @@
         <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO30" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>309</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5063,19 +5090,19 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
@@ -5124,7 +5151,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5136,19 +5163,19 @@
         <v>45</v>
       </c>
       <c r="AI31" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AJ31" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
@@ -5159,7 +5186,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5185,10 +5212,10 @@
         <v>57</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5239,7 +5266,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5263,7 +5290,7 @@
         <v>45</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -5274,7 +5301,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5303,7 +5330,7 @@
         <v>102</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>104</v>
@@ -5356,7 +5383,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5380,7 +5407,7 @@
         <v>45</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5391,11 +5418,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5417,10 +5444,10 @@
         <v>101</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>104</v>
@@ -5475,7 +5502,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5510,7 +5537,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5533,13 +5560,13 @@
         <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5590,7 +5617,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5599,7 +5626,7 @@
         <v>55</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>67</v>
@@ -5611,10 +5638,10 @@
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -5625,7 +5652,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5648,13 +5675,13 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5705,7 +5732,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5714,7 +5741,7 @@
         <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>67</v>
@@ -5726,10 +5753,10 @@
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5740,7 +5767,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5766,16 +5793,16 @@
         <v>153</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -5803,11 +5830,11 @@
         <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="Y37" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="Y37" t="s" s="2">
-        <v>349</v>
-      </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
       </c>
@@ -5824,7 +5851,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5842,13 +5869,13 @@
         <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AL37" t="s" s="2">
-        <v>351</v>
-      </c>
       <c r="AM37" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -5859,7 +5886,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5885,16 +5912,16 @@
         <v>153</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -5919,14 +5946,14 @@
         <v>45</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>168</v>
+        <v>275</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="Y38" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="Y38" t="s" s="2">
-        <v>358</v>
-      </c>
       <c r="Z38" t="s" s="2">
         <v>45</v>
       </c>
@@ -5943,7 +5970,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -5961,13 +5988,13 @@
         <v>45</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AL38" t="s" s="2">
-        <v>351</v>
-      </c>
       <c r="AM38" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -5978,7 +6005,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6001,17 +6028,17 @@
         <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6060,7 +6087,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6084,7 +6111,7 @@
         <v>45</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6095,7 +6122,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6121,10 +6148,10 @@
         <v>57</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6175,7 +6202,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6196,10 +6223,10 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6210,7 +6237,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6233,16 +6260,16 @@
         <v>56</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6292,7 +6319,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6313,10 +6340,10 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6327,7 +6354,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6350,16 +6377,16 @@
         <v>56</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6409,7 +6436,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6430,10 +6457,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6444,7 +6471,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6467,19 +6494,19 @@
         <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
@@ -6516,19 +6543,19 @@
         <v>45</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>45</v>
+        <v>386</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>45</v>
+        <v>387</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>45</v>
+        <v>388</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6549,10 +6576,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6563,7 +6590,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6589,10 +6616,10 @@
         <v>57</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6643,7 +6670,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6667,7 +6694,7 @@
         <v>45</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6678,7 +6705,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6707,7 +6734,7 @@
         <v>102</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>104</v>
@@ -6760,7 +6787,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6784,7 +6811,7 @@
         <v>45</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6795,11 +6822,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6821,10 +6848,10 @@
         <v>101</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>104</v>
@@ -6879,7 +6906,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -6914,7 +6941,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6940,13 +6967,13 @@
         <v>153</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>167</v>
@@ -6974,13 +7001,13 @@
         <v>45</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>168</v>
+        <v>275</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>169</v>
+        <v>398</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>170</v>
+        <v>399</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>45</v>
@@ -6998,7 +7025,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>55</v>
@@ -7016,16 +7043,16 @@
         <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>45</v>
@@ -7033,7 +7060,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7056,19 +7083,19 @@
         <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="K48" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N48" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7117,7 +7144,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7135,24 +7162,24 @@
         <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO48" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>242</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7178,16 +7205,16 @@
         <v>153</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7212,14 +7239,14 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="Y49" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="X49" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>250</v>
-      </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
       </c>
@@ -7236,7 +7263,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7245,7 +7272,7 @@
         <v>55</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>67</v>
@@ -7260,7 +7287,7 @@
         <v>98</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7271,11 +7298,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7297,16 +7324,16 @@
         <v>153</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7331,13 +7358,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7355,7 +7382,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7373,24 +7400,24 @@
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO50" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>264</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7416,16 +7443,16 @@
         <v>45</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="M51" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7474,7 +7501,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7495,20 +7522,2150 @@
         <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AM51" t="s" s="2">
-        <v>318</v>
-      </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO51" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="X56" s="2"/>
+      <c r="Y56" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="X65" s="2"/>
+      <c r="Y65" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO69" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO51">
+  <autoFilter ref="A1:AO69">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7518,7 +9675,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI50">
+  <conditionalFormatting sqref="A2:AI68">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-hiv-viral-load.xlsx
+++ b/StructureDefinition-hiv-viral-load.xlsx
@@ -543,7 +543,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/openhie.vn.case-reporting.hiv/ValueSet/vs-viralload-chidinh</t>
+    <t>http://openhie.org/fhir/openhie.vn.case-reporting.hiv/ValueSet/cs-viralload-indications</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1508,7 +1508,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="76.80078125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="79.98828125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="35.91796875" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-hiv-viral-load.xlsx
+++ b/StructureDefinition-hiv-viral-load.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-12T07:19:23+00:00</t>
+    <t>2021-09-12T07:37:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load.xlsx
+++ b/StructureDefinition-hiv-viral-load.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-12T07:37:00+00:00</t>
+    <t>2021-09-18T10:16:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load.xlsx
+++ b/StructureDefinition-hiv-viral-load.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-18T10:16:13+00:00</t>
+    <t>2021-09-25T01:43:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load.xlsx
+++ b/StructureDefinition-hiv-viral-load.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-25T01:43:32+00:00</t>
+    <t>2021-09-26T03:05:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load.xlsx
+++ b/StructureDefinition-hiv-viral-load.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-26T03:05:54+00:00</t>
+    <t>2021-09-26T04:27:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load.xlsx
+++ b/StructureDefinition-hiv-viral-load.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-26T04:27:45+00:00</t>
+    <t>2021-09-30T09:59:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load.xlsx
+++ b/StructureDefinition-hiv-viral-load.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-30T09:59:38+00:00</t>
+    <t>2021-10-06T13:35:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load.xlsx
+++ b/StructureDefinition-hiv-viral-load.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-06T13:35:19+00:00</t>
+    <t>2021-10-06T13:42:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load.xlsx
+++ b/StructureDefinition-hiv-viral-load.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-06T13:42:37+00:00</t>
+    <t>2021-10-29T12:02:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load.xlsx
+++ b/StructureDefinition-hiv-viral-load.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-29T12:02:00+00:00</t>
+    <t>2021-10-29T12:05:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load.xlsx
+++ b/StructureDefinition-hiv-viral-load.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-29T12:05:23+00:00</t>
+    <t>2021-10-29T13:08:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load.xlsx
+++ b/StructureDefinition-hiv-viral-load.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-29T13:08:24+00:00</t>
+    <t>2021-10-29T13:58:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load.xlsx
+++ b/StructureDefinition-hiv-viral-load.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-29T13:58:33+00:00</t>
+    <t>2022-01-16T18:45:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load.xlsx
+++ b/StructureDefinition-hiv-viral-load.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T18:45:36+00:00</t>
+    <t>2022-01-16T18:50:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load.xlsx
+++ b/StructureDefinition-hiv-viral-load.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T18:50:07+00:00</t>
+    <t>2022-01-16T18:51:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load.xlsx
+++ b/StructureDefinition-hiv-viral-load.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T18:51:47+00:00</t>
+    <t>2022-01-16T19:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load.xlsx
+++ b/StructureDefinition-hiv-viral-load.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T19:00:02+00:00</t>
+    <t>2022-01-16T19:22:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load.xlsx
+++ b/StructureDefinition-hiv-viral-load.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T19:22:42+00:00</t>
+    <t>2022-02-25T20:09:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load.xlsx
+++ b/StructureDefinition-hiv-viral-load.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:09:43+00:00</t>
+    <t>2022-02-25T20:11:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load.xlsx
+++ b/StructureDefinition-hiv-viral-load.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:11:49+00:00</t>
+    <t>2022-02-25T20:13:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load.xlsx
+++ b/StructureDefinition-hiv-viral-load.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:13:21+00:00</t>
+    <t>2022-02-25T20:43:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load.xlsx
+++ b/StructureDefinition-hiv-viral-load.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:43:03+00:00</t>
+    <t>2022-02-25T20:52:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load.xlsx
+++ b/StructureDefinition-hiv-viral-load.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:52:14+00:00</t>
+    <t>2022-02-25T20:59:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load.xlsx
+++ b/StructureDefinition-hiv-viral-load.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:59:17+00:00</t>
+    <t>2022-02-25T21:00:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load.xlsx
+++ b/StructureDefinition-hiv-viral-load.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T21:00:17+00:00</t>
+    <t>2022-02-25T21:34:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load.xlsx
+++ b/StructureDefinition-hiv-viral-load.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T21:34:18+00:00</t>
+    <t>2022-02-25T21:36:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load.xlsx
+++ b/StructureDefinition-hiv-viral-load.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T21:36:43+00:00</t>
+    <t>2022-03-02T07:06:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load.xlsx
+++ b/StructureDefinition-hiv-viral-load.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-02T07:06:01+00:00</t>
+    <t>2022-03-02T18:06:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load.xlsx
+++ b/StructureDefinition-hiv-viral-load.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-02T18:06:48+00:00</t>
+    <t>2022-03-04T08:28:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load.xlsx
+++ b/StructureDefinition-hiv-viral-load.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T08:28:51+00:00</t>
+    <t>2022-03-04T08:37:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load.xlsx
+++ b/StructureDefinition-hiv-viral-load.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T08:37:21+00:00</t>
+    <t>2022-03-08T06:55:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load.xlsx
+++ b/StructureDefinition-hiv-viral-load.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-08T06:55:36+00:00</t>
+    <t>2022-03-16T09:10:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load.xlsx
+++ b/StructureDefinition-hiv-viral-load.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16T09:10:28+00:00</t>
+    <t>2022-03-23T08:06:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load.xlsx
+++ b/StructureDefinition-hiv-viral-load.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T08:06:35+00:00</t>
+    <t>2022-03-25T09:06:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-viral-load.xlsx
+++ b/StructureDefinition-hiv-viral-load.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T09:06:52+00:00</t>
+    <t>2022-03-29T15:31:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
